--- a/9IntegerProgramming/SportsScheduling.xlsx
+++ b/9IntegerProgramming/SportsScheduling.xlsx
@@ -9,6 +9,40 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$5:$G$8</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$14:$B$35</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$5:$G$8</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$10</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$D$14:$D$35</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">binary</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>SPORTS SCHEDULING</t>
   </si>
@@ -145,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +191,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,8 +262,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -225,7 +277,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -558,7 +612,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -600,51 +654,102 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <f>1*B5+2*B6+4*B7+8*B8+1*G5+2*G6+4*G7+8*G8</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -666,81 +771,151 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="4">
+        <f>SUM(B5:B8)</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4">
+        <f>SUM(G5:G8)</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="4">
+        <f>SUM(C5:C8)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="4">
+        <f>SUM(D5:D8)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4">
+        <f>SUM(E5:E8)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4">
+        <f>SUM(F5:F8)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="4">
+        <f>B5+C5+D5</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="4">
+        <f>B6+C6+D6</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="4">
+        <f>B7+C7+D7</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="4">
+        <f>B8+C8+D8</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
@@ -748,7 +923,7 @@
       </c>
       <c r="B24" s="4">
         <f>SUM(B5,E5:F5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -763,7 +938,7 @@
       </c>
       <c r="B25" s="4">
         <f>SUM(B6,E6:F6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>28</v>
@@ -778,7 +953,7 @@
       </c>
       <c r="B26" s="4">
         <f>SUM(B7,E7:F7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -793,7 +968,7 @@
       </c>
       <c r="B27" s="4">
         <f>SUM(B8,E8:F8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -808,7 +983,7 @@
       </c>
       <c r="B28" s="4">
         <f>SUM(C5,E5,G5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>28</v>
@@ -823,7 +998,7 @@
       </c>
       <c r="B29" s="4">
         <f>SUM(C6,E6,G6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -838,7 +1013,7 @@
       </c>
       <c r="B30" s="4">
         <f>SUM(C7,E7,G7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>28</v>
@@ -853,7 +1028,7 @@
       </c>
       <c r="B31" s="4">
         <f>SUM(C8,E8,G8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -868,7 +1043,7 @@
       </c>
       <c r="B32" s="4">
         <f>SUM(D5,F5,G5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>28</v>
@@ -883,7 +1058,7 @@
       </c>
       <c r="B33" s="4">
         <f>SUM(D6,F6,G6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>28</v>
@@ -898,7 +1073,7 @@
       </c>
       <c r="B34" s="4">
         <f>SUM(D7,F7,G7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -913,7 +1088,7 @@
       </c>
       <c r="B35" s="4">
         <f>SUM(D8,F8,G8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>28</v>
@@ -924,6 +1099,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
